--- a/2022/Price List/Samsung Price List 15.02.2022.xlsx
+++ b/2022/Price List/Samsung Price List 15.02.2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Price List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>SAMSUNG Price List (15.02.2022)</t>
+  </si>
+  <si>
+    <t>A03 Core(2+32)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -386,43 +389,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -729,474 +741,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E38"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>2330</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2450</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2620</v>
+      </c>
       <c r="C5" s="3">
-        <v>2330</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2450</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
-        <v>4</v>
+        <v>2750</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3380</v>
       </c>
       <c r="C6" s="3">
-        <v>2620</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2750</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
-        <v>5</v>
+        <v>3550</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6600</v>
       </c>
       <c r="C7" s="3">
-        <v>3380</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3550</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
-        <v>7</v>
+        <v>6999</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7550</v>
       </c>
       <c r="C8" s="3">
-        <v>6600</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6999</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>7999</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8110</v>
       </c>
       <c r="C9" s="3">
-        <v>7550</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7999</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>9</v>
+        <v>8599</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9430</v>
       </c>
       <c r="C10" s="3">
-        <v>8110</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8599</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
-        <v>10</v>
+        <v>9999</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11320</v>
       </c>
       <c r="C11" s="3">
-        <v>9430</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9999</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>11</v>
+        <v>11999</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12260</v>
       </c>
       <c r="C12" s="3">
-        <v>11320</v>
-      </c>
-      <c r="D12" s="3">
-        <v>11999</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12260</v>
-      </c>
-      <c r="D13" s="3">
         <v>12999</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="20">
+        <v>9150</v>
+      </c>
+      <c r="C13" s="20">
+        <v>9699</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="3">
+        <v>12730</v>
+      </c>
       <c r="C14" s="3">
-        <v>12730</v>
-      </c>
-      <c r="D14" s="3">
         <v>13499</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="3">
+        <v>14220</v>
+      </c>
       <c r="C15" s="3">
+        <v>14999</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14150</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14999</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>15090</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15999</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>17920</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18999</v>
+      </c>
+      <c r="D18" s="11">
+        <v>17999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18870</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19999</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>21230</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22499</v>
+      </c>
+      <c r="D20" s="11">
+        <v>21999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>22640</v>
+      </c>
+      <c r="C21" s="3">
+        <v>23999</v>
+      </c>
+      <c r="D21" s="11">
+        <v>22999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>22640</v>
+      </c>
+      <c r="C22" s="3">
+        <v>23999</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25470</v>
+      </c>
+      <c r="C23" s="3">
+        <v>26999</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>26410</v>
+      </c>
+      <c r="C24" s="3">
+        <v>27999</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>26410</v>
+      </c>
+      <c r="C25" s="3">
+        <v>27999</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>33020</v>
+      </c>
+      <c r="C26" s="3">
+        <v>34999</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43400</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45999</v>
+      </c>
+      <c r="D27" s="11">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44340</v>
+      </c>
+      <c r="C28" s="3">
+        <v>46999</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>66040</v>
+      </c>
+      <c r="C29" s="3">
+        <v>69999</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>127360</v>
+      </c>
+      <c r="C30" s="3">
+        <v>134999</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>132070</v>
+      </c>
+      <c r="C31" s="3">
+        <v>139999</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>105660</v>
+      </c>
+      <c r="C32" s="3">
+        <v>111999</v>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>179240</v>
+      </c>
+      <c r="C33" s="3">
+        <v>189999</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
         <v>14220</v>
       </c>
-      <c r="D15" s="3">
+      <c r="C34" s="3">
         <v>14999</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>14150</v>
-      </c>
-      <c r="D16" s="3">
-        <v>14999</v>
-      </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>15090</v>
-      </c>
-      <c r="D17" s="3">
-        <v>15999</v>
-      </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
         <v>17920</v>
       </c>
-      <c r="D18" s="3">
+      <c r="C35" s="3">
         <v>18999</v>
       </c>
-      <c r="E18" s="17">
-        <v>17999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18870</v>
-      </c>
-      <c r="D19" s="3">
-        <v>19999</v>
-      </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
-        <v>21230</v>
-      </c>
-      <c r="D20" s="3">
-        <v>22499</v>
-      </c>
-      <c r="E20" s="17">
-        <v>21999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>22640</v>
-      </c>
-      <c r="D21" s="3">
-        <v>23999</v>
-      </c>
-      <c r="E21" s="17">
-        <v>22999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3">
-        <v>22640</v>
-      </c>
-      <c r="D22" s="3">
-        <v>23999</v>
-      </c>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3">
-        <v>25470</v>
-      </c>
-      <c r="D23" s="3">
-        <v>26999</v>
-      </c>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3">
-        <v>26410</v>
-      </c>
-      <c r="D24" s="3">
-        <v>27999</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3">
-        <v>26410</v>
-      </c>
-      <c r="D25" s="3">
-        <v>27999</v>
-      </c>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3">
-        <v>33020</v>
-      </c>
-      <c r="D26" s="3">
-        <v>34999</v>
-      </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3">
-        <v>43400</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45999</v>
-      </c>
-      <c r="E27" s="17">
-        <v>42999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3">
-        <v>44340</v>
-      </c>
-      <c r="D28" s="3">
-        <v>46999</v>
-      </c>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
-        <v>66040</v>
-      </c>
-      <c r="D29" s="3">
-        <v>69999</v>
-      </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3">
-        <v>127360</v>
-      </c>
-      <c r="D30" s="3">
-        <v>134999</v>
-      </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3">
-        <v>132070</v>
-      </c>
-      <c r="D31" s="3">
-        <v>139999</v>
-      </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3">
-        <v>105660</v>
-      </c>
-      <c r="D32" s="3">
-        <v>111999</v>
-      </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3">
-        <v>179240</v>
-      </c>
-      <c r="D33" s="3">
-        <v>189999</v>
-      </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3">
-        <v>14220</v>
-      </c>
-      <c r="D34" s="3">
-        <v>14999</v>
-      </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3">
-        <v>17920</v>
-      </c>
-      <c r="D35" s="3">
-        <v>18999</v>
-      </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="B36" s="3">
+        <v>25190</v>
+      </c>
       <c r="C36" s="3">
-        <v>25190</v>
-      </c>
-      <c r="D36" s="3">
         <v>26699</v>
       </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="2:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="14" t="s">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="B37" s="3">
+        <v>27360</v>
+      </c>
       <c r="C37" s="3">
-        <v>27360</v>
-      </c>
-      <c r="D37" s="3">
         <v>28999</v>
       </c>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="16">
+      <c r="B38" s="10">
         <v>38680</v>
       </c>
-      <c r="D38" s="16">
+      <c r="C38" s="10">
         <v>40999</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="D38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2022/Price List/Samsung Price List 15.02.2022.xlsx
+++ b/2022/Price List/Samsung Price List 15.02.2022.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -138,10 +138,10 @@
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>SAMSUNG Price List (15.02.2022)</t>
-  </si>
-  <si>
     <t>A03 Core(2+32)</t>
+  </si>
+  <si>
+    <t>SAMSUNG Price List (28.02.2022)</t>
   </si>
 </sst>
 </file>
@@ -410,6 +410,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -426,15 +435,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -746,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,20 +760,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -898,16 +898,16 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="14">
         <v>9150</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="14">
         <v>9699</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">

--- a/2022/Price List/Samsung Price List 15.02.2022.xlsx
+++ b/2022/Price List/Samsung Price List 15.02.2022.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
